--- a/ventas/ventas.xlsx
+++ b/ventas/ventas.xlsx
@@ -12,12 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Venta 0</t>
   </si>
   <si>
     <t>Venta 1</t>
+  </si>
+  <si>
+    <t>Venta 2</t>
   </si>
 </sst>
 </file>
@@ -62,7 +65,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -84,6 +87,14 @@
         <v>100.0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>200.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ventas/ventas.xlsx
+++ b/ventas/ventas.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Venta 0</t>
   </si>
@@ -21,6 +21,18 @@
   </si>
   <si>
     <t>Venta 2</t>
+  </si>
+  <si>
+    <t>Venta 3</t>
+  </si>
+  <si>
+    <t>Venta 4</t>
+  </si>
+  <si>
+    <t>Venta 5</t>
+  </si>
+  <si>
+    <t>Venta 6</t>
   </si>
 </sst>
 </file>
@@ -65,7 +77,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -95,6 +107,38 @@
         <v>200.0</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>400.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>600.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ventas/ventas.xlsx
+++ b/ventas/ventas.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Venta 0</t>
   </si>
@@ -33,6 +33,15 @@
   </si>
   <si>
     <t>Venta 6</t>
+  </si>
+  <si>
+    <t>Venta 7</t>
+  </si>
+  <si>
+    <t>Venta 8</t>
+  </si>
+  <si>
+    <t>Venta 9</t>
   </si>
 </sst>
 </file>
@@ -77,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -139,6 +148,30 @@
         <v>600.0</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>700.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>800.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>900.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ventas/ventas.xlsx
+++ b/ventas/ventas.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Venta 0</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>Venta 9</t>
+  </si>
+  <si>
+    <t>Venta 10</t>
   </si>
 </sst>
 </file>
@@ -86,7 +89,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -172,6 +175,14 @@
         <v>900.0</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n" s="0">
+        <v>1000.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ventas/ventas.xlsx
+++ b/ventas/ventas.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Venta 0</t>
   </si>
@@ -45,6 +45,21 @@
   </si>
   <si>
     <t>Venta 10</t>
+  </si>
+  <si>
+    <t>Venta 11</t>
+  </si>
+  <si>
+    <t>Venta 12</t>
+  </si>
+  <si>
+    <t>Venta 13</t>
+  </si>
+  <si>
+    <t>Venta 14</t>
+  </si>
+  <si>
+    <t>Venta 15</t>
   </si>
 </sst>
 </file>
@@ -89,7 +104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -183,6 +198,46 @@
         <v>1000.0</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>1100.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>1200.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>1300.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>1400.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>1500.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ventas/ventas.xlsx
+++ b/ventas/ventas.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Venta 0</t>
   </si>
@@ -60,6 +60,78 @@
   </si>
   <si>
     <t>Venta 15</t>
+  </si>
+  <si>
+    <t>Venta 16</t>
+  </si>
+  <si>
+    <t>Venta 17</t>
+  </si>
+  <si>
+    <t>Venta 18</t>
+  </si>
+  <si>
+    <t>Venta 19</t>
+  </si>
+  <si>
+    <t>Venta 20</t>
+  </si>
+  <si>
+    <t>Venta 21</t>
+  </si>
+  <si>
+    <t>Venta 22</t>
+  </si>
+  <si>
+    <t>Venta 23</t>
+  </si>
+  <si>
+    <t>Venta 24</t>
+  </si>
+  <si>
+    <t>Venta 25</t>
+  </si>
+  <si>
+    <t>Venta 26</t>
+  </si>
+  <si>
+    <t>Venta 27</t>
+  </si>
+  <si>
+    <t>Venta 28</t>
+  </si>
+  <si>
+    <t>Venta 29</t>
+  </si>
+  <si>
+    <t>Venta 30</t>
+  </si>
+  <si>
+    <t>Venta 31</t>
+  </si>
+  <si>
+    <t>Venta 32</t>
+  </si>
+  <si>
+    <t>Venta 33</t>
+  </si>
+  <si>
+    <t>Venta 34</t>
+  </si>
+  <si>
+    <t>Venta 35</t>
+  </si>
+  <si>
+    <t>Venta 36</t>
+  </si>
+  <si>
+    <t>Venta 37</t>
+  </si>
+  <si>
+    <t>Venta 38</t>
+  </si>
+  <si>
+    <t>Venta 39</t>
   </si>
 </sst>
 </file>
@@ -104,7 +176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -238,6 +310,198 @@
         <v>1500.0</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n" s="0">
+        <v>1600.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n" s="0">
+        <v>1700.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n" s="0">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n" s="0">
+        <v>1900.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n" s="0">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n" s="0">
+        <v>2100.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n" s="0">
+        <v>2200.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n" s="0">
+        <v>2300.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n" s="0">
+        <v>2400.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="0">
+        <v>2500.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="0">
+        <v>2600.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n" s="0">
+        <v>2700.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n" s="0">
+        <v>2800.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n" s="0">
+        <v>2900.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n" s="0">
+        <v>3000.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n" s="0">
+        <v>3100.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n" s="0">
+        <v>3200.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n" s="0">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n" s="0">
+        <v>3400.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n" s="0">
+        <v>3500.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n" s="0">
+        <v>3600.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n" s="0">
+        <v>3700.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n" s="0">
+        <v>3800.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n" s="0">
+        <v>3900.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ventas/ventas.xlsx
+++ b/ventas/ventas.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>IdVentaTPS</t>
   </si>
@@ -26,7 +26,7 @@
     <t>Monto</t>
   </si>
   <si>
-    <t>02/17/2025</t>
+    <t>02/44/2025</t>
   </si>
   <si>
     <t>Gaseosa 500ml</t>
@@ -56,7 +56,7 @@
     <t>Alfajor</t>
   </si>
   <si>
-    <t>02/18/2025</t>
+    <t>02/45/2025</t>
   </si>
 </sst>
 </file>
@@ -101,7 +101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -132,7 +132,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>750.0</v>
+        <v>2250.0</v>
       </c>
     </row>
     <row r="3">
@@ -160,7 +160,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>150.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="5">
@@ -174,7 +174,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>890.0</v>
+        <v>1780.0</v>
       </c>
     </row>
     <row r="6">
@@ -188,7 +188,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>240.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="7">
@@ -202,7 +202,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>1800.0</v>
+        <v>1200.0</v>
       </c>
     </row>
     <row r="8">
@@ -230,7 +230,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>12500.0</v>
+        <v>10000.0</v>
       </c>
     </row>
     <row r="10">
@@ -244,133 +244,35 @@
         <v>13</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>1950.0</v>
+        <v>1300.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n" s="0">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>14</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>750.0</v>
+        <v>3560.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n" s="0">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>14</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>1560.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D13" t="n" s="0">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D14" t="n" s="0">
-        <v>890.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D15" t="n" s="0">
-        <v>400.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D16" t="n" s="0">
-        <v>1200.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="D17" t="n" s="0">
-        <v>2100.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="D18" t="n" s="0">
-        <v>12500.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D19" t="n" s="0">
-        <v>650.0</v>
+        <v>1300.0</v>
       </c>
     </row>
   </sheetData>

--- a/ventas/ventas.xlsx
+++ b/ventas/ventas.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>IdVentaTPS</t>
   </si>
@@ -23,10 +23,16 @@
     <t>Producto</t>
   </si>
   <si>
-    <t>Monto</t>
-  </si>
-  <si>
-    <t>02/44/2025</t>
+    <t>MontoBruto</t>
+  </si>
+  <si>
+    <t>MedioPago</t>
+  </si>
+  <si>
+    <t>DiagnósticoBot</t>
+  </si>
+  <si>
+    <t>02/12/2025</t>
   </si>
   <si>
     <t>Gaseosa 500ml</t>
@@ -54,9 +60,6 @@
   </si>
   <si>
     <t>Alfajor</t>
-  </si>
-  <si>
-    <t>02/45/2025</t>
   </si>
 </sst>
 </file>
@@ -101,7 +104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -120,159 +123,137 @@
       <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>1.0</v>
+        <v>1.8293E7</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>2250.0</v>
+        <v>3750.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>2.0</v>
+        <v>1.8293001E7</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>1040.0</v>
+        <v>2080.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
-        <v>3.0</v>
+        <v>1.8293002E7</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>100.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="0">
-        <v>4.0</v>
+        <v>1.8293003E7</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>1780.0</v>
+        <v>890.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n" s="0">
-        <v>5.0</v>
+        <v>1.8293004E7</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>80.0</v>
+        <v>320.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n" s="0">
-        <v>6.0</v>
+        <v>1.8293005E7</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>1200.0</v>
+        <v>3000.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n" s="0">
-        <v>7.0</v>
+        <v>1.8293006E7</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>2100.0</v>
+        <v>2800.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n" s="0">
-        <v>8.0</v>
+        <v>1.8293007E7</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>10000.0</v>
+        <v>12500.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n" s="0">
-        <v>9.0</v>
+        <v>1.8293008E7</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>1300.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D11" t="n" s="0">
-        <v>3560.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n" s="0">
-        <v>11.0</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D12" t="n" s="0">
-        <v>1300.0</v>
+        <v>650.0</v>
       </c>
     </row>
   </sheetData>

--- a/ventas/ventas.xlsx
+++ b/ventas/ventas.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
   <si>
     <t>IdVentaTPS</t>
   </si>
@@ -32,34 +32,22 @@
     <t>DiagnósticoBot</t>
   </si>
   <si>
-    <t>02/12/2025</t>
+    <t>03/12/2025</t>
+  </si>
+  <si>
+    <t>Galletitas</t>
+  </si>
+  <si>
+    <t>Chicle</t>
+  </si>
+  <si>
+    <t>Caramelo</t>
   </si>
   <si>
     <t>Gaseosa 500ml</t>
   </si>
   <si>
-    <t>Galletitas</t>
-  </si>
-  <si>
-    <t>Caramelo</t>
-  </si>
-  <si>
     <t>Chocolate</t>
-  </si>
-  <si>
-    <t>Chicle</t>
-  </si>
-  <si>
-    <t>Agua mineral 500ml</t>
-  </si>
-  <si>
-    <t>Snack salado</t>
-  </si>
-  <si>
-    <t>Cigarrillos</t>
-  </si>
-  <si>
-    <t>Alfajor</t>
   </si>
 </sst>
 </file>
@@ -104,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -141,7 +129,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>3750.0</v>
+        <v>2080.0</v>
       </c>
     </row>
     <row r="3">
@@ -155,7 +143,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>2080.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="4">
@@ -166,10 +154,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>200.0</v>
+        <v>2600.0</v>
       </c>
     </row>
     <row r="5">
@@ -180,10 +168,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>890.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="6">
@@ -194,10 +182,10 @@
         <v>6</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>320.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="7">
@@ -208,10 +196,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>3000.0</v>
+        <v>2080.0</v>
       </c>
     </row>
     <row r="8">
@@ -222,10 +210,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>2800.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="9">
@@ -236,10 +224,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>12500.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="10">
@@ -250,10 +238,136 @@
         <v>6</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>650.0</v>
+        <v>160.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>1.8293E7</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="0">
+        <v>1.8293001E7</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>250.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="0">
+        <v>1.8293002E7</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>2250.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="0">
+        <v>1.8293003E7</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>3000.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n" s="0">
+        <v>1.8293004E7</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>2670.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n" s="0">
+        <v>1.8293005E7</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n" s="0">
+        <v>1.8293006E7</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n" s="0">
+        <v>1.8293007E7</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>2250.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n" s="0">
+        <v>1.8293008E7</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>100.0</v>
       </c>
     </row>
   </sheetData>

--- a/ventas/ventas.xlsx
+++ b/ventas/ventas.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="14">
   <si>
     <t>IdVentaTPS</t>
   </si>
@@ -38,16 +38,22 @@
     <t>Galletitas</t>
   </si>
   <si>
+    <t>Chocolate</t>
+  </si>
+  <si>
     <t>Chicle</t>
   </si>
   <si>
     <t>Caramelo</t>
   </si>
   <si>
+    <t>QR</t>
+  </si>
+  <si>
+    <t>Debito</t>
+  </si>
+  <si>
     <t>Gaseosa 500ml</t>
-  </si>
-  <si>
-    <t>Chocolate</t>
   </si>
 </sst>
 </file>
@@ -129,7 +135,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>2080.0</v>
+        <v>1560.0</v>
       </c>
     </row>
     <row r="3">
@@ -143,7 +149,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>80.0</v>
+        <v>890.0</v>
       </c>
     </row>
     <row r="4">
@@ -154,10 +160,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>2600.0</v>
+        <v>1780.0</v>
       </c>
     </row>
     <row r="5">
@@ -171,7 +177,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>250.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="6">
@@ -185,7 +191,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>200.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="7">
@@ -196,10 +202,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>2080.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="8">
@@ -213,7 +219,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>400.0</v>
+        <v>890.0</v>
       </c>
     </row>
     <row r="9">
@@ -224,10 +230,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>200.0</v>
+        <v>2080.0</v>
       </c>
     </row>
     <row r="10">
@@ -238,10 +244,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>160.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="11">
@@ -252,10 +258,13 @@
         <v>6</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n" s="0">
         <v>200.0</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -266,10 +275,13 @@
         <v>6</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>250.0</v>
+        <v>100.0</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -280,10 +292,13 @@
         <v>6</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>2250.0</v>
+        <v>1780.0</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -294,10 +309,13 @@
         <v>6</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>3000.0</v>
+        <v>2250.0</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -308,10 +326,13 @@
         <v>6</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>2670.0</v>
+        <v>4450.0</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -322,10 +343,13 @@
         <v>6</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>200.0</v>
+        <v>1040.0</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -336,10 +360,13 @@
         <v>6</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>80.0</v>
+        <v>320.0</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -350,10 +377,13 @@
         <v>6</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>2250.0</v>
+        <v>3560.0</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -367,7 +397,10 @@
         <v>9</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>100.0</v>
+        <v>240.0</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/ventas/ventas.xlsx
+++ b/ventas/ventas.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>IdVentaTPS</t>
   </si>
@@ -35,22 +35,19 @@
     <t>03/12/2025</t>
   </si>
   <si>
-    <t>Galletitas</t>
+    <t>Chicle</t>
+  </si>
+  <si>
+    <t>Debito</t>
+  </si>
+  <si>
+    <t>QR</t>
+  </si>
+  <si>
+    <t>Caramelo</t>
   </si>
   <si>
     <t>Chocolate</t>
-  </si>
-  <si>
-    <t>Chicle</t>
-  </si>
-  <si>
-    <t>Caramelo</t>
-  </si>
-  <si>
-    <t>QR</t>
-  </si>
-  <si>
-    <t>Debito</t>
   </si>
   <si>
     <t>Gaseosa 500ml</t>
@@ -98,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -135,7 +132,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>1560.0</v>
+        <v>80.0</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -146,10 +146,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>890.0</v>
+        <v>320.0</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -160,10 +163,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>1780.0</v>
+        <v>80.0</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -174,10 +180,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>160.0</v>
+        <v>150.0</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -188,10 +197,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>240.0</v>
+        <v>3560.0</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -202,10 +214,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>150.0</v>
+        <v>2670.0</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -216,10 +231,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>890.0</v>
+        <v>1500.0</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -233,7 +251,10 @@
         <v>7</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>2080.0</v>
+        <v>80.0</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -244,163 +265,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n" s="0">
-        <v>1.8293E7</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D11" t="n" s="0">
-        <v>200.0</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n" s="0">
-        <v>1.8293001E7</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D12" t="n" s="0">
-        <v>100.0</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n" s="0">
-        <v>1.8293002E7</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D13" t="n" s="0">
-        <v>1780.0</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n" s="0">
-        <v>1.8293003E7</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D14" t="n" s="0">
-        <v>2250.0</v>
-      </c>
-      <c r="E14" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n" s="0">
-        <v>1.8293004E7</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D15" t="n" s="0">
-        <v>4450.0</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n" s="0">
-        <v>1.8293005E7</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D16" t="n" s="0">
-        <v>1040.0</v>
-      </c>
-      <c r="E16" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n" s="0">
-        <v>1.8293006E7</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D17" t="n" s="0">
-        <v>320.0</v>
-      </c>
-      <c r="E17" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n" s="0">
-        <v>1.8293007E7</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D18" t="n" s="0">
-        <v>3560.0</v>
-      </c>
-      <c r="E18" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n" s="0">
-        <v>1.8293008E7</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D19" t="n" s="0">
-        <v>240.0</v>
-      </c>
-      <c r="E19" t="s" s="0">
-        <v>12</v>
+        <v>80.0</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
